--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuComm.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuComm.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E87CA-75E3-49A3-82DA-B9DE8E5049F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20916" windowHeight="8472" activeTab="1"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="21840" windowHeight="10896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -17,13 +18,14 @@
     <sheet name="提出" sheetId="3" r:id="rId3"/>
     <sheet name="提回" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -285,503 +287,499 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>InsuCate</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>佣金媒體檔序號</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>寫入檔之排序</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuCommSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>InsuYearMonth,InsuCommSeq</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>年月份</t>
+  </si>
+  <si>
+    <t>經紀人代號</t>
+  </si>
+  <si>
+    <t>保單號碼</t>
+  </si>
+  <si>
+    <t>批號</t>
+  </si>
+  <si>
+    <t>險別</t>
+  </si>
+  <si>
+    <t>簽單日期</t>
+  </si>
+  <si>
+    <t>被保險人</t>
+  </si>
+  <si>
+    <t>起保日期</t>
+  </si>
+  <si>
+    <t>到期日期</t>
+  </si>
+  <si>
+    <t>險種</t>
+  </si>
+  <si>
+    <t>保費</t>
+  </si>
+  <si>
+    <t>佣金率</t>
+  </si>
+  <si>
+    <t>佣金</t>
+  </si>
+  <si>
+    <t>合計保費</t>
+  </si>
+  <si>
+    <t>合計佣金</t>
+  </si>
+  <si>
+    <t>收件號碼</t>
+  </si>
+  <si>
+    <t>收費日期</t>
+  </si>
+  <si>
+    <t>佣金日期</t>
+  </si>
+  <si>
+    <t>戶號</t>
+  </si>
+  <si>
+    <t>額度</t>
+  </si>
+  <si>
+    <t>火險服務</t>
+  </si>
+  <si>
+    <t>統一編號</t>
+  </si>
+  <si>
+    <t>員工姓名</t>
+  </si>
+  <si>
+    <t>應領金額</t>
+  </si>
+  <si>
+    <t>Key ID</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Seq</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>EnglishColName</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ChineseColName</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unit</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Length</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Start</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Posision</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remark</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>SalesId</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>員工Id</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>FireInsuMonth</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險年月</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnA</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>0</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotCommA</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>總佣金</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotCommB</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnB</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnC</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnD</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnE</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>E</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>Count</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>筆數</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotFee</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>總保費</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>TotCommC</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnF</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>F</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnG</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>G</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>ColumnH</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>H</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>逗號相隔</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>火險佣金媒體檔 LN$CMTP</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>874-B1.txt</t>
+  </si>
+  <si>
+    <t>範例</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMT01</t>
+  </si>
+  <si>
+    <t>VARCHAR2(3 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">經紀人代號  </t>
+  </si>
+  <si>
+    <t>CMT02</t>
+  </si>
+  <si>
+    <t>VARCHAR2(20 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">保單號碼    </t>
+  </si>
+  <si>
+    <t>2808FEP0Z00147</t>
+  </si>
+  <si>
+    <t>CMT03</t>
+  </si>
+  <si>
+    <t xml:space="preserve">批號        </t>
+  </si>
+  <si>
+    <t>2809FEE0Z00015</t>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>CMT04</t>
+  </si>
+  <si>
+    <t xml:space="preserve">險別        </t>
+  </si>
+  <si>
+    <t>CMT05</t>
+  </si>
+  <si>
+    <t>VARCHAR2(8 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">簽單日期    </t>
+  </si>
+  <si>
+    <t>20200326</t>
+  </si>
+  <si>
+    <t>CMT06</t>
+  </si>
+  <si>
+    <t>VARCHAR2(60 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">被保險人    </t>
+  </si>
+  <si>
+    <t>俊宏</t>
+  </si>
+  <si>
+    <t>CMT07</t>
+  </si>
+  <si>
+    <t>被保險人地址</t>
+  </si>
+  <si>
+    <t>台中市潭子區勝利六街５９號</t>
+  </si>
+  <si>
+    <t>CMT08</t>
+  </si>
+  <si>
+    <t>被保險人電話</t>
+  </si>
+  <si>
+    <t>0425327215</t>
+  </si>
+  <si>
+    <t>CMT09</t>
+  </si>
+  <si>
+    <t xml:space="preserve">起保日期    </t>
+  </si>
+  <si>
+    <t>CMT10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">到期日期    </t>
+  </si>
+  <si>
+    <t>20200507</t>
+  </si>
+  <si>
+    <t>CMT11</t>
+  </si>
+  <si>
+    <t>VARCHAR2(4 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">險種        </t>
+  </si>
+  <si>
+    <t>CMT12</t>
+  </si>
+  <si>
+    <t>VARCHAR2(11 CHAR)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">保費        </t>
+  </si>
+  <si>
+    <t>00000000030</t>
+  </si>
+  <si>
+    <t>CMT13</t>
+  </si>
+  <si>
+    <t>VARCHAR2(5 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">佣金率      </t>
+  </si>
+  <si>
+    <t>16.70</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMT14 </t>
+  </si>
+  <si>
+    <t>VARCHAR2(11 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">佣金    </t>
+  </si>
+  <si>
+    <t>00000000005</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMT15 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMT16 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMT17 </t>
+  </si>
+  <si>
+    <t>VARCHAR2(14 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>2807FEP0000644</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMT18 </t>
+  </si>
+  <si>
+    <t>20200407</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CMT19 </t>
+  </si>
+  <si>
+    <t>20200504</t>
+  </si>
+  <si>
+    <t>LMSACN</t>
+  </si>
+  <si>
+    <t>VARCHAR2(7 CHAR)</t>
+    <phoneticPr fontId="13" type="noConversion"/>
+  </si>
+  <si>
+    <t>借款人戶號</t>
+  </si>
+  <si>
+    <t>1325618</t>
+  </si>
+  <si>
+    <t>LMSAPN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">額度編號  </t>
+  </si>
+  <si>
+    <t>001</t>
+  </si>
+  <si>
+    <t>Y:已產生</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediaCode</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>媒體碼</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>2021-11-05 智偉新增</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>findCustNo</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>CustNo =</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>NowInsuNo ASC, InsuCate ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>InsuCate</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>佣金媒體檔序號</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>寫入檔之排序</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuCommSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuYearMonth,InsuCommSeq</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>年月份</t>
-  </si>
-  <si>
-    <t>經紀人代號</t>
-  </si>
-  <si>
-    <t>保單號碼</t>
-  </si>
-  <si>
-    <t>批號</t>
-  </si>
-  <si>
-    <t>險別</t>
-  </si>
-  <si>
-    <t>簽單日期</t>
-  </si>
-  <si>
-    <t>被保險人</t>
-  </si>
-  <si>
-    <t>起保日期</t>
-  </si>
-  <si>
-    <t>到期日期</t>
-  </si>
-  <si>
-    <t>險種</t>
-  </si>
-  <si>
-    <t>保費</t>
-  </si>
-  <si>
-    <t>佣金率</t>
-  </si>
-  <si>
-    <t>佣金</t>
-  </si>
-  <si>
-    <t>合計保費</t>
-  </si>
-  <si>
-    <t>合計佣金</t>
-  </si>
-  <si>
-    <t>收件號碼</t>
-  </si>
-  <si>
-    <t>收費日期</t>
-  </si>
-  <si>
-    <t>佣金日期</t>
-  </si>
-  <si>
-    <t>戶號</t>
-  </si>
-  <si>
-    <t>額度</t>
-  </si>
-  <si>
-    <t>火險服務</t>
-  </si>
-  <si>
-    <t>統一編號</t>
-  </si>
-  <si>
-    <t>員工姓名</t>
-  </si>
-  <si>
-    <t>應領金額</t>
-  </si>
-  <si>
-    <t>Key ID</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Seq</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>EnglishColName</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ChineseColName</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Unit</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Length</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Start</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Posision</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Remark</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>SalesId</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>員工Id</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>X</t>
-  </si>
-  <si>
-    <t>FireInsuMonth</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>火險年月</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnA</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>0</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotCommA</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>總佣金</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotCommB</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnB</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>B</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnC</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnD</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnE</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>E</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>Count</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>筆數</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotFee</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>總保費</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>TotCommC</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnF</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>F</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnG</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>G</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>ColumnH</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>H</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>逗號相隔</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>火險佣金媒體檔 LN$CMTP</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>874-B1.txt</t>
-  </si>
-  <si>
-    <t>範例</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMT01</t>
-  </si>
-  <si>
-    <t>VARCHAR2(3 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">經紀人代號  </t>
-  </si>
-  <si>
-    <t>CMT02</t>
-  </si>
-  <si>
-    <t>VARCHAR2(20 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">保單號碼    </t>
-  </si>
-  <si>
-    <t>2808FEP0Z00147</t>
-  </si>
-  <si>
-    <t>CMT03</t>
-  </si>
-  <si>
-    <t xml:space="preserve">批號        </t>
-  </si>
-  <si>
-    <t>2809FEE0Z00015</t>
-  </si>
-  <si>
-    <t>??</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>CMT04</t>
-  </si>
-  <si>
-    <t xml:space="preserve">險別        </t>
-  </si>
-  <si>
-    <t>CMT05</t>
-  </si>
-  <si>
-    <t>VARCHAR2(8 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">簽單日期    </t>
-  </si>
-  <si>
-    <t>20200326</t>
-  </si>
-  <si>
-    <t>CMT06</t>
-  </si>
-  <si>
-    <t>VARCHAR2(60 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">被保險人    </t>
-  </si>
-  <si>
-    <t>俊宏</t>
-  </si>
-  <si>
-    <t>CMT07</t>
-  </si>
-  <si>
-    <t>被保險人地址</t>
-  </si>
-  <si>
-    <t>台中市潭子區勝利六街５９號</t>
-  </si>
-  <si>
-    <t>CMT08</t>
-  </si>
-  <si>
-    <t>被保險人電話</t>
-  </si>
-  <si>
-    <t>0425327215</t>
-  </si>
-  <si>
-    <t>CMT09</t>
-  </si>
-  <si>
-    <t xml:space="preserve">起保日期    </t>
-  </si>
-  <si>
-    <t>CMT10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">到期日期    </t>
-  </si>
-  <si>
-    <t>20200507</t>
-  </si>
-  <si>
-    <t>CMT11</t>
-  </si>
-  <si>
-    <t>VARCHAR2(4 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">險種        </t>
-  </si>
-  <si>
-    <t>CMT12</t>
-  </si>
-  <si>
-    <t>VARCHAR2(11 CHAR)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">保費        </t>
-  </si>
-  <si>
-    <t>00000000030</t>
-  </si>
-  <si>
-    <t>CMT13</t>
-  </si>
-  <si>
-    <t>VARCHAR2(5 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">佣金率      </t>
-  </si>
-  <si>
-    <t>16.70</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMT14 </t>
-  </si>
-  <si>
-    <t>VARCHAR2(11 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">佣金    </t>
-  </si>
-  <si>
-    <t>00000000005</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMT15 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMT16 </t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMT17 </t>
-  </si>
-  <si>
-    <t>VARCHAR2(14 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>2807FEP0000644</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMT18 </t>
-  </si>
-  <si>
-    <t>20200407</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CMT19 </t>
-  </si>
-  <si>
-    <t>20200504</t>
-  </si>
-  <si>
-    <t>LMSACN</t>
-  </si>
-  <si>
-    <t>VARCHAR2(7 CHAR)</t>
-    <phoneticPr fontId="13" type="noConversion"/>
-  </si>
-  <si>
-    <t>借款人戶號</t>
-  </si>
-  <si>
-    <t>1325618</t>
-  </si>
-  <si>
-    <t>LMSAPN</t>
-  </si>
-  <si>
-    <t xml:space="preserve">額度編號  </t>
-  </si>
-  <si>
-    <t>001</t>
-  </si>
-  <si>
-    <t>Y:已產生</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>MediaCode</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>媒體碼</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>2021-11-05 智偉新增</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
-    <t>findCustNo</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>CustNo =</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>NowInsuNo ASC, InsuCate ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>findFireOfficer</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -815,13 +813,17 @@
   </si>
   <si>
     <t>InsuYearMonth ASC, NowInsuNo ASC, InsuCate ASC</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>EmpId ASC, NowInsuNo ASC, InsuCate ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="14">
     <font>
       <sz val="12"/>
@@ -1179,7 +1181,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="一般 2" xfId="1"/>
+    <cellStyle name="一般 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1270,6 +1272,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -1305,6 +1324,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1480,11 +1516,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -1507,7 +1543,7 @@
         <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
@@ -1517,7 +1553,7 @@
       <c r="A2" s="42"/>
       <c r="B2" s="43"/>
       <c r="C2" s="8" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
@@ -1532,7 +1568,7 @@
       </c>
       <c r="B3" s="45"/>
       <c r="C3" s="12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D3" s="13" t="s">
         <v>17</v>
@@ -1616,7 +1652,7 @@
         <v>45</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D9" s="23" t="s">
         <v>41</v>
@@ -1631,10 +1667,10 @@
         <v>2</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D10" s="23" t="s">
         <v>41</v>
@@ -1644,7 +1680,7 @@
       </c>
       <c r="F10" s="19"/>
       <c r="G10" s="27" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1655,7 +1691,7 @@
         <v>46</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="23" t="s">
         <v>40</v>
@@ -1673,7 +1709,7 @@
         <v>62</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="23" t="s">
         <v>40</v>
@@ -1691,7 +1727,7 @@
         <v>18</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="23" t="s">
         <v>40</v>
@@ -1709,7 +1745,7 @@
         <v>19</v>
       </c>
       <c r="C14" s="20" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D14" s="23" t="s">
         <v>41</v>
@@ -1727,7 +1763,7 @@
         <v>20</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D15" s="23" t="s">
         <v>60</v>
@@ -1745,7 +1781,7 @@
         <v>21</v>
       </c>
       <c r="C16" s="20" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D16" s="23" t="s">
         <v>42</v>
@@ -1799,7 +1835,7 @@
         <v>24</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D19" s="23" t="s">
         <v>60</v>
@@ -1817,7 +1853,7 @@
         <v>25</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D20" s="23" t="s">
         <v>60</v>
@@ -1832,10 +1868,10 @@
         <v>13</v>
       </c>
       <c r="B21" s="20" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D21" s="23" t="s">
         <v>41</v>
@@ -1853,7 +1889,7 @@
         <v>26</v>
       </c>
       <c r="C22" s="20" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D22" s="23" t="s">
         <v>41</v>
@@ -1871,7 +1907,7 @@
         <v>27</v>
       </c>
       <c r="C23" s="20" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D23" s="23" t="s">
         <v>44</v>
@@ -1891,7 +1927,7 @@
         <v>28</v>
       </c>
       <c r="C24" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D24" s="23" t="s">
         <v>44</v>
@@ -1909,7 +1945,7 @@
         <v>29</v>
       </c>
       <c r="C25" s="20" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D25" s="23" t="s">
         <v>41</v>
@@ -1927,7 +1963,7 @@
         <v>30</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D26" s="23" t="s">
         <v>44</v>
@@ -1945,7 +1981,7 @@
         <v>31</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D27" s="23" t="s">
         <v>40</v>
@@ -1963,7 +1999,7 @@
         <v>32</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D28" s="23" t="s">
         <v>60</v>
@@ -1981,7 +2017,7 @@
         <v>33</v>
       </c>
       <c r="C29" s="20" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D29" s="23" t="s">
         <v>60</v>
@@ -1996,10 +2032,10 @@
         <v>22</v>
       </c>
       <c r="B30" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C30" s="20" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D30" s="23" t="s">
         <v>41</v>
@@ -2017,7 +2053,7 @@
         <v>34</v>
       </c>
       <c r="C31" s="20" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D31" s="23" t="s">
         <v>41</v>
@@ -2035,7 +2071,7 @@
         <v>35</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D32" s="23" t="s">
         <v>40</v>
@@ -2050,10 +2086,10 @@
         <v>25</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D33" s="23" t="s">
         <v>40</v>
@@ -2071,7 +2107,7 @@
         <v>36</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D34" s="23" t="s">
         <v>42</v>
@@ -2089,7 +2125,7 @@
         <v>37</v>
       </c>
       <c r="C35" s="20" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D35" s="23" t="s">
         <v>44</v>
@@ -2104,10 +2140,10 @@
         <v>28</v>
       </c>
       <c r="B36" s="20" t="s">
+        <v>202</v>
+      </c>
+      <c r="C36" s="20" t="s">
         <v>203</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>204</v>
       </c>
       <c r="D36" s="23" t="s">
         <v>40</v>
@@ -2117,10 +2153,10 @@
       </c>
       <c r="F36" s="22"/>
       <c r="G36" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H36" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -2208,12 +2244,12 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F11" sqref="F11"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2243,7 +2279,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>66</v>
+        <v>218</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2254,40 +2290,40 @@
         <v>65</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>208</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>211</v>
-      </c>
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>214</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -2298,7 +2334,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2320,28 +2356,28 @@
   <sheetData>
     <row r="1" spans="1:9" ht="16.8" thickBot="1">
       <c r="A1" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="C1" s="28" t="s">
         <v>98</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="D1" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="E1" s="28" t="s">
         <v>100</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="F1" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="G1" s="28" t="s">
         <v>102</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="H1" s="29" t="s">
         <v>103</v>
-      </c>
-      <c r="H1" s="29" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -2349,13 +2385,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="31" t="s">
+        <v>104</v>
+      </c>
+      <c r="C2" s="31" t="s">
         <v>105</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="D2" s="31" t="s">
         <v>106</v>
-      </c>
-      <c r="D2" s="31" t="s">
-        <v>107</v>
       </c>
       <c r="E2" s="31">
         <v>10</v>
@@ -2368,7 +2404,7 @@
       </c>
       <c r="H2" s="32"/>
       <c r="I2" s="30" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2376,13 +2412,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="31" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="31" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="31" t="s">
-        <v>109</v>
-      </c>
       <c r="D3" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E3" s="31">
         <v>6</v>
@@ -2402,13 +2438,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="31" t="s">
+        <v>109</v>
+      </c>
+      <c r="C4" s="31" t="s">
         <v>110</v>
       </c>
-      <c r="C4" s="31" t="s">
-        <v>111</v>
-      </c>
       <c r="D4" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E4" s="31">
         <v>1</v>
@@ -2422,7 +2458,7 @@
         <v>13</v>
       </c>
       <c r="H4" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2430,13 +2466,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C5" s="31" t="s">
         <v>113</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>114</v>
-      </c>
       <c r="D5" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E5" s="31">
         <v>9</v>
@@ -2456,13 +2492,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="31" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C6" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E6" s="31">
         <v>9</v>
@@ -2482,13 +2518,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="31" t="s">
+        <v>115</v>
+      </c>
+      <c r="C7" s="31" t="s">
         <v>116</v>
       </c>
-      <c r="C7" s="31" t="s">
-        <v>117</v>
-      </c>
       <c r="D7" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E7" s="31">
         <v>1</v>
@@ -2502,7 +2538,7 @@
         <v>32</v>
       </c>
       <c r="H7" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2510,13 +2546,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="31" t="s">
+        <v>117</v>
+      </c>
+      <c r="C8" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="C8" s="31" t="s">
-        <v>119</v>
-      </c>
       <c r="D8" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E8" s="31">
         <v>1</v>
@@ -2530,7 +2566,7 @@
         <v>33</v>
       </c>
       <c r="H8" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2538,13 +2574,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="C9" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="C9" s="31" t="s">
-        <v>121</v>
-      </c>
       <c r="D9" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E9" s="31">
         <v>1</v>
@@ -2558,7 +2594,7 @@
         <v>34</v>
       </c>
       <c r="H9" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2566,13 +2602,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="31" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="C10" s="31" t="s">
-        <v>123</v>
-      </c>
       <c r="D10" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E10" s="31">
         <v>1</v>
@@ -2586,7 +2622,7 @@
         <v>35</v>
       </c>
       <c r="H10" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -2594,13 +2630,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="C11" s="31" t="s">
         <v>124</v>
       </c>
-      <c r="C11" s="31" t="s">
-        <v>125</v>
-      </c>
       <c r="D11" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E11" s="31">
         <v>5</v>
@@ -2620,13 +2656,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="31" t="s">
+        <v>125</v>
+      </c>
+      <c r="C12" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="C12" s="31" t="s">
-        <v>127</v>
-      </c>
       <c r="D12" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E12" s="31">
         <v>9</v>
@@ -2646,13 +2682,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="31" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D13" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E13" s="31">
         <v>9</v>
@@ -2672,13 +2708,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="C14" s="31" t="s">
         <v>129</v>
       </c>
-      <c r="C14" s="31" t="s">
-        <v>130</v>
-      </c>
       <c r="D14" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E14" s="31">
         <v>1</v>
@@ -2692,7 +2728,7 @@
         <v>59</v>
       </c>
       <c r="H14" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -2700,13 +2736,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="31" t="s">
+        <v>130</v>
+      </c>
+      <c r="C15" s="31" t="s">
         <v>131</v>
       </c>
-      <c r="C15" s="31" t="s">
-        <v>132</v>
-      </c>
       <c r="D15" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E15" s="31">
         <v>1</v>
@@ -2720,7 +2756,7 @@
         <v>60</v>
       </c>
       <c r="H15" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -2728,13 +2764,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="31" t="s">
+        <v>132</v>
+      </c>
+      <c r="C16" s="31" t="s">
         <v>133</v>
       </c>
-      <c r="C16" s="31" t="s">
-        <v>134</v>
-      </c>
       <c r="D16" s="31" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E16" s="31">
         <v>1</v>
@@ -2748,7 +2784,7 @@
         <v>61</v>
       </c>
       <c r="H16" s="32" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>
@@ -2758,7 +2794,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2775,26 +2811,26 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="46" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B1" s="46"/>
       <c r="C1" s="33" t="s">
+        <v>136</v>
+      </c>
+      <c r="D1" s="34" t="s">
         <v>137</v>
-      </c>
-      <c r="D1" s="34" t="s">
-        <v>138</v>
       </c>
       <c r="E1" s="35"/>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="36" t="s">
+        <v>138</v>
+      </c>
+      <c r="B2" s="36" t="s">
         <v>139</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="C2" s="36" t="s">
         <v>140</v>
-      </c>
-      <c r="C2" s="36" t="s">
-        <v>141</v>
       </c>
       <c r="D2" s="37">
         <v>874</v>
@@ -2802,148 +2838,148 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="36" t="s">
+        <v>141</v>
+      </c>
+      <c r="B3" s="36" t="s">
         <v>142</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="C3" s="36" t="s">
         <v>143</v>
       </c>
-      <c r="C3" s="36" t="s">
+      <c r="D3" s="37" t="s">
         <v>144</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C4" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="D4" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="D4" s="37" t="s">
+      <c r="E4" s="38" t="s">
         <v>148</v>
-      </c>
-      <c r="E4" s="38" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="36" t="s">
+        <v>149</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" s="36" t="s">
         <v>150</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>151</v>
       </c>
       <c r="D5" s="37">
         <v>1</v>
       </c>
       <c r="E5" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="36" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" s="36" t="s">
         <v>152</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="C6" s="36" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="D6" s="37" t="s">
         <v>154</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>155</v>
-      </c>
       <c r="E6" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B7" s="36" t="s">
         <v>156</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="C7" s="36" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="36" t="s">
+      <c r="D7" s="37" t="s">
         <v>158</v>
-      </c>
-      <c r="D7" s="37" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="36" t="s">
+        <v>159</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>156</v>
+      </c>
+      <c r="C8" s="36" t="s">
         <v>160</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>157</v>
-      </c>
-      <c r="C8" s="36" t="s">
+      <c r="D8" s="37" t="s">
         <v>161</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="36" t="s">
+        <v>162</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>142</v>
+      </c>
+      <c r="C9" s="36" t="s">
         <v>163</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="C9" s="36" t="s">
+      <c r="D9" s="37" t="s">
         <v>164</v>
-      </c>
-      <c r="D9" s="37" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="36" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C10" s="36" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>167</v>
-      </c>
       <c r="D10" s="37" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="36" t="s">
+        <v>167</v>
+      </c>
+      <c r="B11" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C11" s="36" t="s">
         <v>168</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="C11" s="36" t="s">
+      <c r="D11" s="37" t="s">
         <v>169</v>
-      </c>
-      <c r="D11" s="37" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="36" t="s">
+        <v>170</v>
+      </c>
+      <c r="B12" s="36" t="s">
         <v>171</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="C12" s="36" t="s">
         <v>172</v>
-      </c>
-      <c r="C12" s="36" t="s">
-        <v>173</v>
       </c>
       <c r="D12" s="37">
         <v>11</v>
@@ -2951,148 +2987,148 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="36" t="s">
+        <v>173</v>
+      </c>
+      <c r="B13" s="36" t="s">
         <v>174</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="C13" s="36" t="s">
         <v>175</v>
       </c>
-      <c r="C13" s="36" t="s">
+      <c r="D13" s="37" t="s">
         <v>176</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="14" spans="1:5">
       <c r="A14" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="B14" s="39" t="s">
         <v>178</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="C14" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="D14" s="40" t="s">
         <v>180</v>
       </c>
-      <c r="D14" s="40" t="s">
-        <v>181</v>
-      </c>
       <c r="E14" s="41" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B15" s="36" t="s">
         <v>182</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="C15" s="36" t="s">
         <v>183</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="D15" s="37" t="s">
         <v>184</v>
-      </c>
-      <c r="D15" s="37" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="36" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C16" s="36" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D16" s="37" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="17" spans="1:5">
       <c r="A17" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B17" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C17" s="36" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D17" s="37" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="18" spans="1:5">
       <c r="A18" s="36" t="s">
+        <v>187</v>
+      </c>
+      <c r="B18" s="36" t="s">
         <v>188</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="C18" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="37" t="s">
         <v>189</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>190</v>
-      </c>
       <c r="E18" s="38" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19" spans="1:5">
       <c r="A19" s="36" t="s">
+        <v>190</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="D19" s="37" t="s">
         <v>191</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:5">
       <c r="A20" s="36" t="s">
+        <v>192</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>88</v>
+      </c>
+      <c r="D20" s="37" t="s">
         <v>193</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>153</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="21" spans="1:5">
       <c r="A21" s="36" t="s">
+        <v>194</v>
+      </c>
+      <c r="B21" s="36" t="s">
         <v>195</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="C21" s="36" t="s">
         <v>196</v>
       </c>
-      <c r="C21" s="36" t="s">
+      <c r="D21" s="37" t="s">
         <v>197</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="22" spans="1:5">
       <c r="A22" s="36" t="s">
+        <v>198</v>
+      </c>
+      <c r="B22" s="36" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="36" t="s">
-        <v>140</v>
-      </c>
-      <c r="C22" s="36" t="s">
+      <c r="D22" s="37" t="s">
         <v>200</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuComm.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuComm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Documents\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4E87CA-75E3-49A3-82DA-B9DE8E5049F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C95150-43EF-4938-9D04-F4562BB15C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="384" yWindow="384" windowWidth="21840" windowHeight="10896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="217">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -804,19 +804,11 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>InsuYearMonth ASC, NowInsuNo ASC, InsuCate ASC</t>
+    <t>EmpId ASC, NowInsuNo ASC, InsuCate ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>InsuYearMonth ASC, NowInsuNo ASC, InsuCate ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>InsuYearMonth ASC, NowInsuNo ASC, InsuCate ASC</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>EmpId ASC, NowInsuNo ASC, InsuCate ASC</t>
+    <t>InsuYearMonth DESC, NowInsuNo ASC, InsuCate ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1519,8 +1511,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
@@ -2249,7 +2241,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
+      <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2"/>
@@ -2279,7 +2271,7 @@
         <v>64</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -2301,7 +2293,7 @@
         <v>207</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -2323,7 +2315,7 @@
         <v>213</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
   </sheetData>

--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuComm.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L4-批次作業/InsuComm.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SVN\Documents\DB\GenTables\L4-批次作業\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L4-批次作業\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C95150-43EF-4938-9D04-F4562BB15C37}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4FCBF0E-9CAA-4FDC-8277-63637BCB7008}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="1" r:id="rId1"/>
@@ -19,21 +19,11 @@
     <sheet name="提回" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="287" uniqueCount="216">
   <si>
     <t>SEQ</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -226,10 +216,6 @@
     <t>建檔日期時間</t>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
-  </si>
-  <si>
     <t>CreateEmpNo</t>
     <phoneticPr fontId="9" type="noConversion"/>
   </si>
@@ -246,10 +232,6 @@
   </si>
   <si>
     <t>最後更新日期時間</t>
-  </si>
-  <si>
-    <t>DATE</t>
-    <phoneticPr fontId="9" type="noConversion"/>
   </si>
   <si>
     <t>LastUpdateEmpNo</t>
@@ -810,13 +792,16 @@
   <si>
     <t>InsuYearMonth DESC, NowInsuNo ASC, InsuCate ASC</t>
     <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="14">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1028,7 +1013,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1044,10 +1029,10 @@
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1059,9 +1044,6 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -1073,9 +1055,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1189,9 +1168,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1229,9 +1208,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1264,26 +1243,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1316,26 +1278,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1511,109 +1456,109 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H40"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" style="16" customWidth="1"/>
-    <col min="2" max="2" width="19.44140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="31.21875" style="18" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.77734375" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="46" style="16" customWidth="1"/>
+    <col min="1" max="1" width="6" style="14" customWidth="1"/>
+    <col min="2" max="2" width="19.44140625" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.21875" style="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.77734375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="46" style="14" customWidth="1"/>
     <col min="8" max="16384" width="21.44140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="43"/>
+      <c r="B1" s="41"/>
       <c r="C1" s="3" t="s">
         <v>47</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E1" s="5"/>
       <c r="F1" s="6"/>
       <c r="G1" s="6"/>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="42"/>
-      <c r="B2" s="43"/>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="40"/>
+      <c r="B2" s="41"/>
       <c r="C2" s="8" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="11"/>
-      <c r="G2" s="11"/>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="45" t="s">
+      <c r="E2" s="5"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="10"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="45"/>
-      <c r="C3" s="12" t="s">
-        <v>70</v>
-      </c>
-      <c r="D3" s="13" t="s">
+      <c r="B3" s="43"/>
+      <c r="C3" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="D3" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="42" t="s">
+      <c r="E3" s="5"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="45" t="s">
+      <c r="B4" s="42"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="10"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="45"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="42" t="s">
+      <c r="B5" s="43"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="10"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="43"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="42" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="10"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="44"/>
+      <c r="B7" s="42"/>
       <c r="C7" s="3"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1">
+      <c r="D7" s="12"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>0</v>
       </c>
@@ -1632,592 +1577,592 @@
       <c r="F8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="14" t="s">
+      <c r="G8" s="13" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="19">
+    <row r="9" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="17">
         <v>1</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E9" s="19">
+        <v>6</v>
+      </c>
+      <c r="F9" s="17"/>
+    </row>
+    <row r="10" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="17">
+        <v>2</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>65</v>
+      </c>
+      <c r="D10" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="19">
+        <v>6</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="25" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="17">
+        <v>3</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="D11" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="19">
+        <v>3</v>
+      </c>
+      <c r="F11" s="17"/>
+    </row>
+    <row r="12" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="17">
+        <v>4</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>60</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>71</v>
       </c>
-      <c r="D9" s="23" t="s">
+      <c r="D12" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="19">
+        <v>20</v>
+      </c>
+      <c r="F12" s="17"/>
+    </row>
+    <row r="13" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="17">
+        <v>5</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="19">
+        <v>20</v>
+      </c>
+      <c r="F13" s="17"/>
+    </row>
+    <row r="14" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="17">
+        <v>6</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>19</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D14" s="21" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="21">
+      <c r="E14" s="19">
+        <v>2</v>
+      </c>
+      <c r="F14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A15" s="17">
+        <v>7</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E15" s="19">
+        <v>8</v>
+      </c>
+      <c r="F15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A16" s="17">
+        <v>8</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" s="19">
+        <v>60</v>
+      </c>
+      <c r="F16" s="20"/>
+    </row>
+    <row r="17" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A17" s="17">
+        <v>9</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="D17" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E17" s="19">
+        <v>60</v>
+      </c>
+      <c r="F17" s="20"/>
+    </row>
+    <row r="18" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A18" s="17">
+        <v>10</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="D18" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" s="19">
+        <v>20</v>
+      </c>
+      <c r="F18" s="20"/>
+    </row>
+    <row r="19" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A19" s="17">
+        <v>11</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="D19" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="19">
+        <v>8</v>
+      </c>
+      <c r="F19" s="17"/>
+    </row>
+    <row r="20" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="17">
+        <v>12</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="D20" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="19">
+        <v>8</v>
+      </c>
+      <c r="F20" s="17"/>
+    </row>
+    <row r="21" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="17">
+        <v>13</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E21" s="19">
+        <v>2</v>
+      </c>
+      <c r="F21" s="20"/>
+    </row>
+    <row r="22" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="17">
+        <v>14</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="19">
+        <v>14</v>
+      </c>
+      <c r="F22" s="20"/>
+    </row>
+    <row r="23" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="17">
+        <v>15</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="D23" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E23" s="19">
+        <v>5</v>
+      </c>
+      <c r="F23" s="22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="17">
+        <v>16</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E24" s="19">
+        <v>14</v>
+      </c>
+      <c r="F24" s="20"/>
+    </row>
+    <row r="25" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="17">
+        <v>17</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E25" s="19">
+        <v>14</v>
+      </c>
+      <c r="F25" s="20"/>
+    </row>
+    <row r="26" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="17">
+        <v>18</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>83</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E26" s="19">
+        <v>14</v>
+      </c>
+      <c r="F26" s="20"/>
+    </row>
+    <row r="27" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="17">
+        <v>19</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>84</v>
+      </c>
+      <c r="D27" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="19">
+        <v>14</v>
+      </c>
+      <c r="F27" s="20"/>
+    </row>
+    <row r="28" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A28" s="17">
+        <v>20</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>85</v>
+      </c>
+      <c r="D28" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E28" s="19">
+        <v>8</v>
+      </c>
+      <c r="F28" s="17"/>
+    </row>
+    <row r="29" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="17">
+        <v>21</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="E29" s="19">
+        <v>8</v>
+      </c>
+      <c r="F29" s="17"/>
+    </row>
+    <row r="30" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A30" s="17">
+        <v>22</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>87</v>
+      </c>
+      <c r="D30" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E30" s="19">
+        <v>7</v>
+      </c>
+      <c r="F30" s="20"/>
+    </row>
+    <row r="31" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A31" s="17">
+        <v>23</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" s="19">
+        <v>3</v>
+      </c>
+      <c r="F31" s="20"/>
+    </row>
+    <row r="32" spans="1:6" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A32" s="17">
+        <v>24</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="19">
         <v>6</v>
       </c>
-      <c r="F9" s="19"/>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="19">
-        <v>2</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="20" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E10" s="21">
+      <c r="F32" s="20"/>
+    </row>
+    <row r="33" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="17">
+        <v>25</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="19">
+        <v>10</v>
+      </c>
+      <c r="F33" s="20"/>
+    </row>
+    <row r="34" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A34" s="17">
+        <v>26</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="D34" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34" s="19">
+        <v>20</v>
+      </c>
+      <c r="F34" s="20"/>
+    </row>
+    <row r="35" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A35" s="17">
+        <v>27</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>92</v>
+      </c>
+      <c r="D35" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="E35" s="19">
+        <v>14</v>
+      </c>
+      <c r="F35" s="20"/>
+    </row>
+    <row r="36" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A36" s="17">
+        <v>28</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>200</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" s="21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="19">
+        <v>1</v>
+      </c>
+      <c r="F36" s="20"/>
+      <c r="G36" s="25" t="s">
+        <v>199</v>
+      </c>
+      <c r="H36" s="7" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A37" s="17">
+        <v>29</v>
+      </c>
+      <c r="B37" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="D37" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E37" s="19"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A38" s="17">
+        <v>30</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="E38" s="19">
         <v>6</v>
       </c>
-      <c r="F10" s="19"/>
-      <c r="G10" s="27" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="19">
-        <v>3</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="21">
-        <v>3</v>
-      </c>
-      <c r="F11" s="19"/>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="19">
-        <v>4</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>62</v>
-      </c>
-      <c r="C12" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="21">
-        <v>20</v>
-      </c>
-      <c r="F12" s="19"/>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="19">
-        <v>5</v>
-      </c>
-      <c r="B13" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="21">
-        <v>20</v>
-      </c>
-      <c r="F13" s="19"/>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="19">
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="17">
+        <v>31</v>
+      </c>
+      <c r="B39" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="21" t="s">
+        <v>215</v>
+      </c>
+      <c r="E39" s="19"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="1:8" ht="19.8" x14ac:dyDescent="0.3">
+      <c r="A40" s="17">
+        <v>32</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" s="19">
         <v>6</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="C14" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="21">
-        <v>2</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" s="19">
-        <v>7</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E15" s="21">
-        <v>8</v>
-      </c>
-      <c r="F15" s="19"/>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" s="19">
-        <v>8</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="20" t="s">
-        <v>77</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E16" s="21">
-        <v>60</v>
-      </c>
-      <c r="F16" s="22"/>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="19">
-        <v>9</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>38</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="E17" s="21">
-        <v>60</v>
-      </c>
-      <c r="F17" s="22"/>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="19">
-        <v>10</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>39</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="21">
-        <v>20</v>
-      </c>
-      <c r="F18" s="22"/>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="19">
-        <v>11</v>
-      </c>
-      <c r="B19" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="20" t="s">
-        <v>78</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E19" s="21">
-        <v>8</v>
-      </c>
-      <c r="F19" s="19"/>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="19">
-        <v>12</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="20" t="s">
-        <v>79</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="21">
-        <v>8</v>
-      </c>
-      <c r="F20" s="19"/>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="19">
-        <v>13</v>
-      </c>
-      <c r="B21" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="C21" s="20" t="s">
-        <v>80</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E21" s="21">
-        <v>2</v>
-      </c>
-      <c r="F21" s="22"/>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="19">
-        <v>14</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C22" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E22" s="21">
-        <v>14</v>
-      </c>
-      <c r="F22" s="22"/>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="19">
-        <v>15</v>
-      </c>
-      <c r="B23" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="C23" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E23" s="21">
-        <v>5</v>
-      </c>
-      <c r="F23" s="24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="19">
-        <v>16</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E24" s="21">
-        <v>14</v>
-      </c>
-      <c r="F24" s="22"/>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="19">
-        <v>17</v>
-      </c>
-      <c r="B25" s="20" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E25" s="21">
-        <v>14</v>
-      </c>
-      <c r="F25" s="22"/>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="19">
-        <v>18</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>30</v>
-      </c>
-      <c r="C26" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E26" s="21">
-        <v>14</v>
-      </c>
-      <c r="F26" s="22"/>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="19">
-        <v>19</v>
-      </c>
-      <c r="B27" s="20" t="s">
-        <v>31</v>
-      </c>
-      <c r="C27" s="20" t="s">
-        <v>86</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E27" s="21">
-        <v>14</v>
-      </c>
-      <c r="F27" s="22"/>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="19">
-        <v>20</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="20" t="s">
-        <v>87</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="21">
-        <v>8</v>
-      </c>
-      <c r="F28" s="19"/>
-    </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="19">
-        <v>21</v>
-      </c>
-      <c r="B29" s="20" t="s">
-        <v>33</v>
-      </c>
-      <c r="C29" s="20" t="s">
-        <v>88</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>60</v>
-      </c>
-      <c r="E29" s="21">
-        <v>8</v>
-      </c>
-      <c r="F29" s="19"/>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="19">
-        <v>22</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>205</v>
-      </c>
-      <c r="C30" s="20" t="s">
-        <v>89</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E30" s="21">
-        <v>7</v>
-      </c>
-      <c r="F30" s="22"/>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="19">
-        <v>23</v>
-      </c>
-      <c r="B31" s="20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="20" t="s">
-        <v>90</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="21">
-        <v>3</v>
-      </c>
-      <c r="F31" s="22"/>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="19">
-        <v>24</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>35</v>
-      </c>
-      <c r="C32" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E32" s="21">
-        <v>6</v>
-      </c>
-      <c r="F32" s="22"/>
-    </row>
-    <row r="33" spans="1:8">
-      <c r="A33" s="19">
-        <v>25</v>
-      </c>
-      <c r="B33" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="C33" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E33" s="21">
-        <v>10</v>
-      </c>
-      <c r="F33" s="22"/>
-    </row>
-    <row r="34" spans="1:8">
-      <c r="A34" s="19">
-        <v>26</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>36</v>
-      </c>
-      <c r="C34" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="D34" s="23" t="s">
-        <v>42</v>
-      </c>
-      <c r="E34" s="21">
-        <v>20</v>
-      </c>
-      <c r="F34" s="22"/>
-    </row>
-    <row r="35" spans="1:8">
-      <c r="A35" s="19">
-        <v>27</v>
-      </c>
-      <c r="B35" s="20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C35" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E35" s="21">
-        <v>14</v>
-      </c>
-      <c r="F35" s="22"/>
-    </row>
-    <row r="36" spans="1:8">
-      <c r="A36" s="19">
-        <v>28</v>
-      </c>
-      <c r="B36" s="20" t="s">
-        <v>202</v>
-      </c>
-      <c r="C36" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="21">
-        <v>1</v>
-      </c>
-      <c r="F36" s="22"/>
-      <c r="G36" s="27" t="s">
-        <v>201</v>
-      </c>
-      <c r="H36" s="7" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
-      <c r="A37" s="19">
-        <v>29</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>50</v>
-      </c>
-      <c r="E37" s="21"/>
-      <c r="G37" s="26"/>
-    </row>
-    <row r="38" spans="1:8">
-      <c r="A38" s="19">
-        <v>30</v>
-      </c>
-      <c r="B38" s="23" t="s">
-        <v>51</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>52</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>53</v>
-      </c>
-      <c r="E38" s="21">
-        <v>6</v>
-      </c>
-      <c r="G38" s="26"/>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="19">
-        <v>31</v>
-      </c>
-      <c r="B39" s="23" t="s">
-        <v>54</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>55</v>
-      </c>
-      <c r="D39" s="23" t="s">
-        <v>56</v>
-      </c>
-      <c r="E39" s="21"/>
-      <c r="G39" s="26"/>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="19">
-        <v>32</v>
-      </c>
-      <c r="B40" s="23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C40" s="25" t="s">
-        <v>58</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>59</v>
-      </c>
-      <c r="E40" s="21">
-        <v>6</v>
-      </c>
-      <c r="G40" s="26"/>
+      <c r="G40" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -2239,12 +2184,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="20.21875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.109375" style="1" customWidth="1"/>
@@ -2252,7 +2197,7 @@
     <col min="4" max="4" width="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="18" customHeight="1">
+    <row r="1" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>9</v>
       </c>
@@ -2263,59 +2208,59 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>65</v>
-      </c>
       <c r="C3" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>207</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>212</v>
-      </c>
       <c r="B6" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
   </sheetData>
@@ -2333,7 +2278,7 @@
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.44140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.6640625" bestFit="1" customWidth="1"/>
@@ -2346,437 +2291,437 @@
     <col min="9" max="9" width="10.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.8" thickBot="1">
-      <c r="A1" s="28" t="s">
+    <row r="1" spans="1:9" ht="16.8" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="26" t="s">
+        <v>94</v>
+      </c>
+      <c r="B1" s="26" t="s">
+        <v>95</v>
+      </c>
+      <c r="C1" s="26" t="s">
         <v>96</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="D1" s="26" t="s">
         <v>97</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="E1" s="26" t="s">
         <v>98</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="F1" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="G1" s="26" t="s">
         <v>100</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>101</v>
       </c>
-      <c r="G1" s="28" t="s">
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="H1" s="29" t="s">
+      <c r="C2" s="29" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="31">
-        <v>1</v>
-      </c>
-      <c r="B2" s="31" t="s">
+      <c r="D2" s="29" t="s">
         <v>104</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="E2" s="29">
+        <v>10</v>
+      </c>
+      <c r="F2" s="29">
+        <v>0</v>
+      </c>
+      <c r="G2" s="29">
+        <v>6</v>
+      </c>
+      <c r="H2" s="30"/>
+      <c r="I2" s="28" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A3" s="29">
+        <v>2</v>
+      </c>
+      <c r="B3" s="29" t="s">
         <v>105</v>
       </c>
-      <c r="D2" s="31" t="s">
+      <c r="C3" s="29" t="s">
         <v>106</v>
       </c>
-      <c r="E2" s="31">
-        <v>10</v>
-      </c>
-      <c r="F2" s="31">
-        <v>0</v>
-      </c>
-      <c r="G2" s="31">
+      <c r="D3" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E3" s="29">
         <v>6</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="30" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="31">
-        <v>2</v>
-      </c>
-      <c r="B3" s="31" t="s">
-        <v>107</v>
-      </c>
-      <c r="C3" s="31" t="s">
-        <v>108</v>
-      </c>
-      <c r="D3" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3" s="31">
-        <v>6</v>
-      </c>
-      <c r="F3" s="31">
+      <c r="F3" s="29">
         <f>G2</f>
         <v>6</v>
       </c>
-      <c r="G3" s="31">
+      <c r="G3" s="29">
         <f>E3+F3</f>
         <v>12</v>
       </c>
-      <c r="H3" s="32"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="31">
+      <c r="H3" s="30"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>109</v>
-      </c>
-      <c r="C4" s="31" t="s">
-        <v>110</v>
-      </c>
-      <c r="D4" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4" s="31">
+      <c r="B4" s="29" t="s">
+        <v>107</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>108</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E4" s="29">
         <v>1</v>
       </c>
-      <c r="F4" s="31">
+      <c r="F4" s="29">
         <f t="shared" ref="F4:F16" si="0">G3</f>
         <v>12</v>
       </c>
-      <c r="G4" s="31">
+      <c r="G4" s="29">
         <f t="shared" ref="G4:G16" si="1">E4+F4</f>
         <v>13</v>
       </c>
-      <c r="H4" s="32" t="s">
+      <c r="H4" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="C5" s="29" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="31">
-        <v>4</v>
-      </c>
-      <c r="B5" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="C5" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D5" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5" s="31">
+      <c r="D5" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E5" s="29">
         <v>9</v>
       </c>
-      <c r="F5" s="31">
+      <c r="F5" s="29">
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="G5" s="31">
+      <c r="G5" s="29">
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="H5" s="32"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="31">
+      <c r="H5" s="30"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D6" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E6" s="31">
+      <c r="B6" s="29" t="s">
+        <v>112</v>
+      </c>
+      <c r="C6" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E6" s="29">
         <v>9</v>
       </c>
-      <c r="F6" s="31">
+      <c r="F6" s="29">
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="G6" s="31">
+      <c r="G6" s="29">
         <f t="shared" si="1"/>
         <v>31</v>
       </c>
-      <c r="H6" s="32"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="31">
+      <c r="H6" s="30"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>115</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E7" s="31">
+      <c r="B7" s="29" t="s">
+        <v>113</v>
+      </c>
+      <c r="C7" s="29" t="s">
+        <v>114</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E7" s="29">
         <v>1</v>
       </c>
-      <c r="F7" s="31">
+      <c r="F7" s="29">
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="G7" s="31">
+      <c r="G7" s="29">
         <f t="shared" si="1"/>
         <v>32</v>
       </c>
-      <c r="H7" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="31">
+      <c r="H7" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>117</v>
-      </c>
-      <c r="C8" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="D8" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E8" s="31">
+      <c r="B8" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>116</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E8" s="29">
         <v>1</v>
       </c>
-      <c r="F8" s="31">
+      <c r="F8" s="29">
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="G8" s="31">
+      <c r="G8" s="29">
         <f t="shared" si="1"/>
         <v>33</v>
       </c>
-      <c r="H8" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="31">
+      <c r="H8" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A9" s="29">
         <v>8</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="C9" s="31" t="s">
-        <v>120</v>
-      </c>
-      <c r="D9" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E9" s="31">
+      <c r="B9" s="29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E9" s="29">
         <v>1</v>
       </c>
-      <c r="F9" s="31">
+      <c r="F9" s="29">
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="G9" s="31">
+      <c r="G9" s="29">
         <f t="shared" si="1"/>
         <v>34</v>
       </c>
-      <c r="H9" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="31">
+      <c r="H9" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>121</v>
-      </c>
-      <c r="C10" s="31" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E10" s="31">
+      <c r="B10" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E10" s="29">
         <v>1</v>
       </c>
-      <c r="F10" s="31">
+      <c r="F10" s="29">
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="G10" s="31">
+      <c r="G10" s="29">
         <f t="shared" si="1"/>
         <v>35</v>
       </c>
-      <c r="H10" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="31">
+      <c r="H10" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>123</v>
-      </c>
-      <c r="C11" s="31" t="s">
-        <v>124</v>
-      </c>
-      <c r="D11" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11" s="31">
+      <c r="B11" s="29" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="29" t="s">
+        <v>122</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E11" s="29">
         <v>5</v>
       </c>
-      <c r="F11" s="31">
+      <c r="F11" s="29">
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="G11" s="31">
+      <c r="G11" s="29">
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="H11" s="32"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="31">
+      <c r="H11" s="30"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>125</v>
-      </c>
-      <c r="C12" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="D12" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E12" s="31">
+      <c r="B12" s="29" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E12" s="29">
         <v>9</v>
       </c>
-      <c r="F12" s="31">
+      <c r="F12" s="29">
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="G12" s="31">
+      <c r="G12" s="29">
         <f t="shared" si="1"/>
         <v>49</v>
       </c>
-      <c r="H12" s="32"/>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="31">
+      <c r="H12" s="30"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="C13" s="31" t="s">
-        <v>113</v>
-      </c>
-      <c r="D13" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E13" s="31">
+      <c r="B13" s="29" t="s">
+        <v>125</v>
+      </c>
+      <c r="C13" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E13" s="29">
         <v>9</v>
       </c>
-      <c r="F13" s="31">
+      <c r="F13" s="29">
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="G13" s="31">
+      <c r="G13" s="29">
         <f t="shared" si="1"/>
         <v>58</v>
       </c>
-      <c r="H13" s="32"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="31">
+      <c r="H13" s="30"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E14" s="31">
+      <c r="B14" s="29" t="s">
+        <v>126</v>
+      </c>
+      <c r="C14" s="29" t="s">
+        <v>127</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E14" s="29">
         <v>1</v>
       </c>
-      <c r="F14" s="31">
+      <c r="F14" s="29">
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="G14" s="31">
+      <c r="G14" s="29">
         <f t="shared" si="1"/>
         <v>59</v>
       </c>
-      <c r="H14" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" s="31">
+      <c r="H14" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="D15" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E15" s="31">
+      <c r="B15" s="29" t="s">
+        <v>128</v>
+      </c>
+      <c r="C15" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="29">
         <v>1</v>
       </c>
-      <c r="F15" s="31">
+      <c r="F15" s="29">
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="G15" s="31">
+      <c r="G15" s="29">
         <f t="shared" si="1"/>
         <v>60</v>
       </c>
-      <c r="H15" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" s="31">
+      <c r="H15" s="30" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A16" s="29">
         <v>15</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>106</v>
-      </c>
-      <c r="E16" s="31">
+      <c r="B16" s="29" t="s">
+        <v>130</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>131</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="E16" s="29">
         <v>1</v>
       </c>
-      <c r="F16" s="31">
+      <c r="F16" s="29">
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="G16" s="31">
+      <c r="G16" s="29">
         <f t="shared" si="1"/>
         <v>61</v>
       </c>
-      <c r="H16" s="32" t="s">
-        <v>111</v>
+      <c r="H16" s="30" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>
@@ -2793,7 +2738,7 @@
       <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.2"/>
+  <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.21875" bestFit="1" customWidth="1"/>
@@ -2801,326 +2746,326 @@
     <col min="4" max="4" width="32.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>133</v>
+      </c>
+      <c r="B1" s="44"/>
+      <c r="C1" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="D1" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="33" t="s">
+      <c r="E1" s="33"/>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="34" t="s">
         <v>136</v>
       </c>
-      <c r="D1" s="34" t="s">
+      <c r="B2" s="34" t="s">
         <v>137</v>
       </c>
-      <c r="E1" s="35"/>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="36" t="s">
+      <c r="C2" s="34" t="s">
         <v>138</v>
       </c>
-      <c r="B2" s="36" t="s">
+      <c r="D2" s="35">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="34" t="s">
         <v>139</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="B3" s="34" t="s">
         <v>140</v>
       </c>
-      <c r="D2" s="37">
-        <v>874</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="36" t="s">
+      <c r="C3" s="34" t="s">
         <v>141</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="D3" s="35" t="s">
         <v>142</v>
       </c>
-      <c r="C3" s="36" t="s">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="34" t="s">
         <v>143</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="B4" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C4" s="34" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="36" t="s">
+      <c r="D4" s="35" t="s">
         <v>145</v>
       </c>
-      <c r="B4" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C4" s="36" t="s">
+      <c r="E4" s="36" t="s">
         <v>146</v>
       </c>
-      <c r="D4" s="37" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="34" t="s">
         <v>147</v>
       </c>
-      <c r="E4" s="38" t="s">
+      <c r="B5" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C5" s="34" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="36" t="s">
+      <c r="D5" s="35">
+        <v>1</v>
+      </c>
+      <c r="E5" s="36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="34" t="s">
         <v>149</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C5" s="36" t="s">
+      <c r="B6" s="34" t="s">
         <v>150</v>
       </c>
-      <c r="D5" s="37">
-        <v>1</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="36" t="s">
+      <c r="C6" s="34" t="s">
         <v>151</v>
       </c>
-      <c r="B6" s="36" t="s">
+      <c r="D6" s="35" t="s">
         <v>152</v>
       </c>
-      <c r="C6" s="36" t="s">
+      <c r="E6" s="36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="34" t="s">
         <v>153</v>
       </c>
-      <c r="D6" s="37" t="s">
+      <c r="B7" s="34" t="s">
         <v>154</v>
       </c>
-      <c r="E6" s="38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="36" t="s">
+      <c r="C7" s="34" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="D7" s="35" t="s">
         <v>156</v>
       </c>
-      <c r="C7" s="36" t="s">
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="34" t="s">
         <v>157</v>
       </c>
-      <c r="D7" s="37" t="s">
+      <c r="B8" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C8" s="34" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="36" t="s">
+      <c r="D8" s="35" t="s">
         <v>159</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>156</v>
-      </c>
-      <c r="C8" s="36" t="s">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="34" t="s">
         <v>160</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="B9" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="34" t="s">
         <v>161</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="36" t="s">
+      <c r="D9" s="35" t="s">
         <v>162</v>
       </c>
-      <c r="B9" s="36" t="s">
-        <v>142</v>
-      </c>
-      <c r="C9" s="36" t="s">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="34" t="s">
         <v>163</v>
       </c>
-      <c r="D9" s="37" t="s">
+      <c r="B10" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C10" s="34" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="36" t="s">
+      <c r="D10" s="35" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="34" t="s">
         <v>165</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C10" s="36" t="s">
+      <c r="B11" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C11" s="34" t="s">
         <v>166</v>
       </c>
-      <c r="D10" s="37" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="36" t="s">
+      <c r="D11" s="35" t="s">
         <v>167</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C11" s="36" t="s">
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="34" t="s">
         <v>168</v>
       </c>
-      <c r="D11" s="37" t="s">
+      <c r="B12" s="34" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="36" t="s">
+      <c r="C12" s="34" t="s">
         <v>170</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="D12" s="35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="34" t="s">
         <v>171</v>
       </c>
-      <c r="C12" s="36" t="s">
+      <c r="B13" s="34" t="s">
         <v>172</v>
       </c>
-      <c r="D12" s="37">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="36" t="s">
+      <c r="C13" s="34" t="s">
         <v>173</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="D13" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="C13" s="36" t="s">
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="37" t="s">
         <v>175</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="B14" s="37" t="s">
         <v>176</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" s="39" t="s">
+      <c r="C14" s="37" t="s">
         <v>177</v>
       </c>
-      <c r="B14" s="39" t="s">
+      <c r="D14" s="38" t="s">
         <v>178</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="E14" s="39" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="34" t="s">
         <v>179</v>
       </c>
-      <c r="D14" s="40" t="s">
+      <c r="B15" s="34" t="s">
         <v>180</v>
       </c>
-      <c r="E14" s="41" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="36" t="s">
+      <c r="C15" s="34" t="s">
         <v>181</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="D15" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="36" t="s">
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="34" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="B16" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C16" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="34" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="36" t="s">
+      <c r="B17" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="34" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="35" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="34" t="s">
         <v>185</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C16" s="36" t="s">
+      <c r="B18" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="C18" s="34" t="s">
         <v>84</v>
       </c>
-      <c r="D16" s="37" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="36" t="s">
-        <v>186</v>
-      </c>
-      <c r="B17" s="36" t="s">
-        <v>182</v>
-      </c>
-      <c r="C17" s="36" t="s">
+      <c r="D18" s="35" t="s">
+        <v>187</v>
+      </c>
+      <c r="E18" s="36" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="34" t="s">
+        <v>188</v>
+      </c>
+      <c r="B19" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C19" s="34" t="s">
         <v>85</v>
       </c>
-      <c r="D17" s="37" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="36" t="s">
-        <v>187</v>
-      </c>
-      <c r="B18" s="36" t="s">
-        <v>188</v>
-      </c>
-      <c r="C18" s="36" t="s">
+      <c r="D19" s="35" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="34" t="s">
+        <v>190</v>
+      </c>
+      <c r="B20" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="C20" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="D18" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="E18" s="38" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="D19" s="37" t="s">
+      <c r="D20" s="35" t="s">
         <v>191</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="36" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="34" t="s">
         <v>192</v>
       </c>
-      <c r="B20" s="36" t="s">
-        <v>152</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>88</v>
-      </c>
-      <c r="D20" s="37" t="s">
+      <c r="B21" s="34" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="36" t="s">
+      <c r="C21" s="34" t="s">
         <v>194</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="D21" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="C21" s="36" t="s">
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
         <v>196</v>
       </c>
-      <c r="D21" s="37" t="s">
+      <c r="B22" s="34" t="s">
+        <v>137</v>
+      </c>
+      <c r="C22" s="34" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" s="36" t="s">
+      <c r="D22" s="35" t="s">
         <v>198</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>139</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>199</v>
-      </c>
-      <c r="D22" s="37" t="s">
-        <v>200</v>
       </c>
     </row>
   </sheetData>
